--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/C3-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/C3-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H2">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I2">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J2">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N2">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O2">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P2">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q2">
-        <v>1.36953909226</v>
+        <v>22.1143419237675</v>
       </c>
       <c r="R2">
-        <v>5.47815636904</v>
+        <v>88.45736769507002</v>
       </c>
       <c r="S2">
-        <v>1.751280652544958E-05</v>
+        <v>0.0001420150493215906</v>
       </c>
       <c r="T2">
-        <v>7.969729566908903E-06</v>
+        <v>6.495064587870637E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H3">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I3">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J3">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P3">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q3">
-        <v>94.75639109316664</v>
+        <v>285.0818478754583</v>
       </c>
       <c r="R3">
-        <v>568.5383465589999</v>
+        <v>1710.49108725275</v>
       </c>
       <c r="S3">
-        <v>0.001211685269623121</v>
+        <v>0.001830753672267813</v>
       </c>
       <c r="T3">
-        <v>0.0008271207620323546</v>
+        <v>0.001255944007624235</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H4">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I4">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J4">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N4">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O4">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P4">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q4">
-        <v>126.4063607906367</v>
+        <v>306.3588105578</v>
       </c>
       <c r="R4">
-        <v>758.43816474382</v>
+        <v>1838.1528633468</v>
       </c>
       <c r="S4">
-        <v>0.001616405221744726</v>
+        <v>0.001967391195335993</v>
       </c>
       <c r="T4">
-        <v>0.001103390750288167</v>
+        <v>0.001349680855411913</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H5">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I5">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J5">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N5">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O5">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P5">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q5">
-        <v>20.324422641595</v>
+        <v>66.26148566419251</v>
       </c>
       <c r="R5">
-        <v>81.29769056638</v>
+        <v>265.04594265677</v>
       </c>
       <c r="S5">
-        <v>0.0002598959631567401</v>
+        <v>0.0004255215093969667</v>
       </c>
       <c r="T5">
-        <v>0.000118273478261781</v>
+        <v>0.000194612451304576</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H6">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I6">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J6">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N6">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O6">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P6">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q6">
-        <v>4.241957647753333</v>
+        <v>106.3030277346492</v>
       </c>
       <c r="R6">
-        <v>25.45174588652</v>
+        <v>637.818166407895</v>
       </c>
       <c r="S6">
-        <v>5.424349256921542E-05</v>
+        <v>0.0006826623997590195</v>
       </c>
       <c r="T6">
-        <v>3.702770020725003E-05</v>
+        <v>0.0004683239275689393</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H7">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I7">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J7">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N7">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O7">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P7">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q7">
-        <v>97.40884275979333</v>
+        <v>411.2812039035334</v>
       </c>
       <c r="R7">
-        <v>584.45305655876</v>
+        <v>2467.6872234212</v>
       </c>
       <c r="S7">
-        <v>0.001245603157121377</v>
+        <v>0.002641187364233933</v>
       </c>
       <c r="T7">
-        <v>0.0008502737949670638</v>
+        <v>0.001811922321047897</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>324.26945</v>
       </c>
       <c r="I8">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J8">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N8">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O8">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P8">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q8">
-        <v>218.2383119815667</v>
+        <v>1171.30373269795</v>
       </c>
       <c r="R8">
-        <v>1309.4298718894</v>
+        <v>7027.822396187701</v>
       </c>
       <c r="S8">
-        <v>0.002790694588985345</v>
+        <v>0.00752194019352142</v>
       </c>
       <c r="T8">
-        <v>0.001904984316396845</v>
+        <v>0.005160244032207042</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>324.26945</v>
       </c>
       <c r="I9">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J9">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P9">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q9">
         <v>15099.58712278361</v>
@@ -1013,10 +1013,10 @@
         <v>135896.2841050525</v>
       </c>
       <c r="S9">
-        <v>0.1930840451287224</v>
+        <v>0.09696732633373537</v>
       </c>
       <c r="T9">
-        <v>0.1977045853575891</v>
+        <v>0.09978311196831224</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>324.26945</v>
       </c>
       <c r="I10">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J10">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N10">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O10">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P10">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q10">
-        <v>20143.0619677735</v>
+        <v>16226.53839703867</v>
       </c>
       <c r="R10">
-        <v>181287.5577099615</v>
+        <v>146038.845573348</v>
       </c>
       <c r="S10">
-        <v>0.2575768366638118</v>
+        <v>0.1042044415663778</v>
       </c>
       <c r="T10">
-        <v>0.2637407024303279</v>
+        <v>0.1072303821663264</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>324.26945</v>
       </c>
       <c r="I11">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J11">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N11">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O11">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P11">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q11">
-        <v>3238.730251928841</v>
+        <v>3509.592361379116</v>
       </c>
       <c r="R11">
-        <v>19432.38151157305</v>
+        <v>21057.5541682747</v>
       </c>
       <c r="S11">
-        <v>0.04141485015703555</v>
+        <v>0.02253808564677472</v>
       </c>
       <c r="T11">
-        <v>0.02827061059510746</v>
+        <v>0.01546170522019178</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>324.26945</v>
       </c>
       <c r="I12">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J12">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N12">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O12">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P12">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q12">
-        <v>675.9629438655222</v>
+        <v>5630.424527752604</v>
       </c>
       <c r="R12">
-        <v>6083.6664947897</v>
+        <v>50673.82074977345</v>
       </c>
       <c r="S12">
-        <v>0.008643789959113371</v>
+        <v>0.03615775770161626</v>
       </c>
       <c r="T12">
-        <v>0.008850637600042646</v>
+        <v>0.03720772472209809</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>324.26945</v>
       </c>
       <c r="I13">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J13">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N13">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O13">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P13">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q13">
-        <v>15522.25966832012</v>
+        <v>21783.83652479244</v>
       </c>
       <c r="R13">
-        <v>139700.3370148811</v>
+        <v>196054.528723132</v>
       </c>
       <c r="S13">
-        <v>0.1984889164138386</v>
+        <v>0.1398925922890325</v>
       </c>
       <c r="T13">
-        <v>0.2032387963050689</v>
+        <v>0.143954863227549</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H14">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I14">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J14">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N14">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O14">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P14">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q14">
-        <v>35.50154335398067</v>
+        <v>537.4052285835901</v>
       </c>
       <c r="R14">
-        <v>213.009260123884</v>
+        <v>3224.431371501541</v>
       </c>
       <c r="S14">
-        <v>0.0004539714591769326</v>
+        <v>0.003451137289369408</v>
       </c>
       <c r="T14">
-        <v>0.0003098900586388705</v>
+        <v>0.002367568758009291</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H15">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I15">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J15">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P15">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q15">
-        <v>2456.299455395294</v>
+        <v>6927.833355867833</v>
       </c>
       <c r="R15">
-        <v>22106.69509855765</v>
+        <v>62350.5002028105</v>
       </c>
       <c r="S15">
-        <v>0.03140961610662697</v>
+        <v>0.04448952625933335</v>
       </c>
       <c r="T15">
-        <v>0.03216125456902388</v>
+        <v>0.0457814353349637</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H16">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I16">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J16">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N16">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O16">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P16">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q16">
-        <v>3276.738081585011</v>
+        <v>7444.889257114401</v>
       </c>
       <c r="R16">
-        <v>29490.6427342651</v>
+        <v>67004.0033140296</v>
       </c>
       <c r="S16">
-        <v>0.04190087043274914</v>
+        <v>0.04780998316330443</v>
       </c>
       <c r="T16">
-        <v>0.04290356673181404</v>
+        <v>0.04919831332430383</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H17">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I17">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J17">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N17">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O17">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P17">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q17">
-        <v>526.8548927395121</v>
+        <v>1610.23416262649</v>
       </c>
       <c r="R17">
-        <v>3161.129356437073</v>
+        <v>9661.40497575894</v>
       </c>
       <c r="S17">
-        <v>0.006737089766680371</v>
+        <v>0.01034068681821994</v>
       </c>
       <c r="T17">
-        <v>0.004598873124396625</v>
+        <v>0.007093976563201122</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H18">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I18">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J18">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N18">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O18">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P18">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q18">
-        <v>109.9611133326269</v>
+        <v>2583.292015462077</v>
       </c>
       <c r="R18">
-        <v>989.650019993642</v>
+        <v>23249.62813915869</v>
       </c>
       <c r="S18">
-        <v>0.001406113716651573</v>
+        <v>0.01658952114661963</v>
       </c>
       <c r="T18">
-        <v>0.001439762302115061</v>
+        <v>0.01707125594426053</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H19">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I19">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J19">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N19">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O19">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P19">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q19">
-        <v>2525.056987304583</v>
+        <v>9994.630188762934</v>
       </c>
       <c r="R19">
-        <v>22725.51288574125</v>
+        <v>89951.6716988664</v>
       </c>
       <c r="S19">
-        <v>0.03228884427930201</v>
+        <v>0.06418404418730327</v>
       </c>
       <c r="T19">
-        <v>0.03306152284959335</v>
+        <v>0.06604785250733096</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H20">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I20">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J20">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N20">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O20">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P20">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q20">
-        <v>0.898332117734</v>
+        <v>9.878558804533501</v>
       </c>
       <c r="R20">
-        <v>3.593328470936</v>
+        <v>39.514235218134</v>
       </c>
       <c r="S20">
-        <v>1.148730741779092E-05</v>
+        <v>6.343865083971955E-05</v>
       </c>
       <c r="T20">
-        <v>5.227644891679632E-06</v>
+        <v>2.90136951358091E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H21">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I21">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J21">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P21">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q21">
-        <v>62.15427508468333</v>
+        <v>127.3471219740916</v>
       </c>
       <c r="R21">
-        <v>372.9256505081</v>
+        <v>764.0827318445499</v>
       </c>
       <c r="S21">
-        <v>0.0007947898679484978</v>
+        <v>0.0008178044759575716</v>
       </c>
       <c r="T21">
-        <v>0.0005425395667619429</v>
+        <v>0.0005610348604216471</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H22">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I22">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J22">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N22">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O22">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P22">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q22">
-        <v>82.91467868705635</v>
+        <v>136.85162035636</v>
       </c>
       <c r="R22">
-        <v>497.4880721223381</v>
+        <v>821.10972213816</v>
       </c>
       <c r="S22">
-        <v>0.001060260882053426</v>
+        <v>0.0008788409658150489</v>
       </c>
       <c r="T22">
-        <v>0.00072375542618414</v>
+        <v>0.0006029074590372526</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H23">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I23">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J23">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N23">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O23">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P23">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q23">
-        <v>13.3315520064605</v>
+        <v>29.5992521444185</v>
       </c>
       <c r="R23">
-        <v>53.326208025842</v>
+        <v>118.397008577674</v>
       </c>
       <c r="S23">
-        <v>0.0001704755215039808</v>
+        <v>0.0001900820412229411</v>
       </c>
       <c r="T23">
-        <v>7.758001564113159E-05</v>
+        <v>8.693410597221794E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H24">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I24">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J24">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N24">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O24">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P24">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q24">
-        <v>2.782459309544667</v>
+        <v>47.48595794514983</v>
       </c>
       <c r="R24">
-        <v>16.694755857268</v>
+        <v>284.915747670899</v>
       </c>
       <c r="S24">
-        <v>3.558034365603994E-05</v>
+        <v>0.0003049478335331146</v>
       </c>
       <c r="T24">
-        <v>2.428785898116134E-05</v>
+        <v>0.0002092020406489078</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H25">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I25">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J25">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N25">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O25">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P25">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q25">
-        <v>63.89411773418067</v>
+        <v>183.7208437839066</v>
       </c>
       <c r="R25">
-        <v>383.3647064050841</v>
+        <v>1102.32506270344</v>
       </c>
       <c r="S25">
-        <v>0.0008170378839982564</v>
+        <v>0.001179828221039405</v>
       </c>
       <c r="T25">
-        <v>0.0005577265104758897</v>
+        <v>0.0008093924413134465</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H26">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I26">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J26">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N26">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O26">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P26">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q26">
-        <v>2.386092410432</v>
+        <v>1057.876368031984</v>
       </c>
       <c r="R26">
-        <v>14.316554462592</v>
+        <v>6347.258208191904</v>
       </c>
       <c r="S26">
-        <v>3.051185247058737E-05</v>
+        <v>0.006793526350460477</v>
       </c>
       <c r="T26">
-        <v>2.08280048451366E-05</v>
+        <v>0.004660533440268323</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H27">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I27">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J27">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P27">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q27">
-        <v>165.0902167781333</v>
+        <v>13637.36487669164</v>
       </c>
       <c r="R27">
-        <v>1485.8119510032</v>
+        <v>122736.2838902248</v>
       </c>
       <c r="S27">
-        <v>0.002111070097976511</v>
+        <v>0.08757715026095353</v>
       </c>
       <c r="T27">
-        <v>0.002161588432141072</v>
+        <v>0.09012025927453247</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H28">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I28">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J28">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N28">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O28">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P28">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q28">
-        <v>220.2326752244373</v>
+        <v>14655.1838144081</v>
       </c>
       <c r="R28">
-        <v>1982.094077019936</v>
+        <v>131896.654329673</v>
       </c>
       <c r="S28">
-        <v>0.00281619725467138</v>
+        <v>0.0941134336890804</v>
       </c>
       <c r="T28">
-        <v>0.002883589424226137</v>
+        <v>0.09684634656418996</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H29">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I29">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J29">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N29">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O29">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P29">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q29">
-        <v>35.410417187504</v>
+        <v>3169.72849730169</v>
       </c>
       <c r="R29">
-        <v>212.462503125024</v>
+        <v>19018.37098381014</v>
       </c>
       <c r="S29">
-        <v>0.0004528061949417378</v>
+        <v>0.02035552992859131</v>
       </c>
       <c r="T29">
-        <v>0.0003090946258096152</v>
+        <v>0.01396441597965572</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H30">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I30">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J30">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N30">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O30">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P30">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q30">
-        <v>7.390590751210666</v>
+        <v>5085.182334540637</v>
       </c>
       <c r="R30">
-        <v>66.515316760896</v>
+        <v>45766.64101086574</v>
       </c>
       <c r="S30">
-        <v>9.450623692759686E-05</v>
+        <v>0.03265629257875005</v>
       </c>
       <c r="T30">
-        <v>9.676779028024007E-05</v>
+        <v>0.0336045823068313</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H31">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I31">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J31">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N31">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O31">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P31">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q31">
-        <v>169.7114757305387</v>
+        <v>19674.32120409073</v>
       </c>
       <c r="R31">
-        <v>1527.403281574848</v>
+        <v>177068.8908368166</v>
       </c>
       <c r="S31">
-        <v>0.002170163857617884</v>
+        <v>0.126345595351623</v>
       </c>
       <c r="T31">
-        <v>0.002222096317395548</v>
+        <v>0.1300144818295148</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H32">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I32">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J32">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N32">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O32">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P32">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q32">
-        <v>52.48735133327467</v>
+        <v>77.32426341833703</v>
       </c>
       <c r="R32">
-        <v>314.924107999648</v>
+        <v>463.9455805100221</v>
       </c>
       <c r="S32">
-        <v>0.0006711753130143086</v>
+        <v>0.000496565040052523</v>
       </c>
       <c r="T32">
-        <v>0.0004581577826149271</v>
+        <v>0.000340656362402436</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H33">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I33">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J33">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P33">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q33">
-        <v>3631.522472405644</v>
+        <v>996.8075910600166</v>
       </c>
       <c r="R33">
-        <v>32683.70225165079</v>
+        <v>8971.26831954015</v>
       </c>
       <c r="S33">
-        <v>0.04643763059520509</v>
+        <v>0.006401351652086922</v>
       </c>
       <c r="T33">
-        <v>0.04754889248199305</v>
+        <v>0.006587237297338032</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H34">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I34">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J34">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N34">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O34">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P34">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q34">
-        <v>4844.502144608555</v>
+        <v>1071.20390241592</v>
       </c>
       <c r="R34">
-        <v>43600.51930147698</v>
+        <v>9640.835121743281</v>
       </c>
       <c r="S34">
-        <v>0.06194845349806824</v>
+        <v>0.00687911381489394</v>
       </c>
       <c r="T34">
-        <v>0.0634308925121933</v>
+        <v>0.007078872956359086</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H35">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I35">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J35">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N35">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O35">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P35">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q35">
-        <v>778.9300194965426</v>
+        <v>231.6876798618071</v>
       </c>
       <c r="R35">
-        <v>4673.580116979256</v>
+        <v>1390.126079170842</v>
       </c>
       <c r="S35">
-        <v>0.009960468310398476</v>
+        <v>0.001487864183171402</v>
       </c>
       <c r="T35">
-        <v>0.006799216220280034</v>
+        <v>0.001020713017441644</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H36">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I36">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J36">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N36">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O36">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P36">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q36">
-        <v>162.5723008980249</v>
+        <v>371.6955877346963</v>
       </c>
       <c r="R36">
-        <v>1463.150708082224</v>
+        <v>3345.260289612267</v>
       </c>
       <c r="S36">
-        <v>0.002078872569694985</v>
+        <v>0.002386974362914598</v>
       </c>
       <c r="T36">
-        <v>0.002128620410499541</v>
+        <v>0.002456288516200269</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H37">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I37">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J37">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N37">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O37">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P37">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q37">
-        <v>3733.177228598857</v>
+        <v>1438.072010429947</v>
       </c>
       <c r="R37">
-        <v>33598.59505738971</v>
+        <v>12942.64809386952</v>
       </c>
       <c r="S37">
-        <v>0.04773752782900052</v>
+        <v>0.009235086813490612</v>
       </c>
       <c r="T37">
-        <v>0.04887989651934722</v>
+        <v>0.009503259875146434</v>
       </c>
     </row>
   </sheetData>
